--- a/_CaltexGoPH/src/test/resources/Global Datasheets/Credentials.xlsx
+++ b/_CaltexGoPH/src/test/resources/Global Datasheets/Credentials.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patricio.c.calacasan\eclipse-workspace\CaltexGo Mobile Automation\_CaltexGoPH\src\test\resources\Global Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mobile Automation\Git Repository\CaltexGoPH\_CaltexGoPH\src\test\resources\Global Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74719063-F93E-42F3-A6C2-B03ACF5A2DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86790A5-0979-46FB-BC56-AA16014124D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mobile Number</t>
   </si>
@@ -57,19 +57,47 @@
     <t>21.0</t>
   </si>
   <si>
+    <t>IncorrectPassword@01</t>
+  </si>
+  <si>
+    <t>9337359242</t>
+  </si>
+  <si>
+    <t>Mobile Number_Unverified User</t>
+  </si>
+  <si>
+    <t>9278460549</t>
+  </si>
+  <si>
+    <t>Password_Unverified User</t>
+  </si>
+  <si>
+    <t>SimplePassphrase@21.0</t>
+  </si>
+  <si>
+    <t>Email Address_Unverified User</t>
+  </si>
+  <si>
+    <t>patricio.c.calacasan@accenture.com</t>
+  </si>
+  <si>
+    <t>Email Address Option</t>
+  </si>
+  <si>
+    <t>patricio.c.calacasan@gmail.com;pcc_patrick@yahoo.com</t>
+  </si>
+  <si>
+    <t>pcc_patrick@yahoo.com</t>
+  </si>
+  <si>
     <t>patricio.c.calacasan@gmail.com</t>
-  </si>
-  <si>
-    <t>IncorrectPassword@01</t>
-  </si>
-  <si>
-    <t>9337359242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,19 +418,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="28.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.54296875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="false"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="1" width="21.36328125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="49.1796875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.7265625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.26953125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="28.1796875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="31.54296875" collapsed="false"/>
+    <col min="11" max="16384" style="1" width="8.90625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -416,18 +452,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>CONCATENATE("SimplePassphrase@",A2)</f>
@@ -437,11 +485,23 @@
         <f>CONCATENATE("SimplePassphrase@",A2+1,".0")</f>
         <v>SimplePassphrase@22.0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
